--- a/GraspTest/CoordinateCalibration/result(3.14_1611)/data.xlsx
+++ b/GraspTest/CoordinateCalibration/result(3.14_1611)/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CameraMat" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Error" sheetId="4" r:id="rId4"/>
     <sheet name="RobotErr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,16 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +474,7 @@
         <v>0.10587100000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -529,7 +533,7 @@
         <v>-9.1174199999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,7 +592,7 @@
         <v>0.88848000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -654,16 +658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +726,7 @@
         <v>0.163602</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,7 +785,7 @@
         <v>-0.62956299999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -847,16 +851,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.32132998319348799</v>
       </c>
@@ -870,7 +874,7 @@
         <v>0.13511353134370599</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.94146918429474802</v>
       </c>
@@ -884,7 +888,7 @@
         <v>-0.45551240349868799</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.1658524454147698E-2</v>
       </c>
@@ -898,7 +902,7 @@
         <v>0.90480215898833605</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -920,16 +924,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>6.1863235648434495E-5</v>
       </c>
@@ -940,7 +948,7 @@
         <v>-2.4921893098357198E-5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>-2.43519851466221E-5</v>
       </c>
@@ -951,7 +959,7 @@
         <v>2.04736460912252E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>-2.4921893098357198E-5</v>
       </c>
@@ -969,19 +977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="S2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T1" t="s">
         <v>8</v>
       </c>
@@ -989,434 +1002,434 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-2.30596549612133E-4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2.7451269663130301E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>-3.3782676290965998E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-3.6828934529332699E-3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>3.3151261967490103E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>-7.2288434124800904E-4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1.5201343222607799E-3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1.46709517931989E-3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>1.57211252935542E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>-1.03935206234368E-3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1.9553640269616098E-3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>3.9691990016313399E-5</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>-1.69533773664733E-3</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>1.22483643568638E-3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>-5.2894694944230502E-4</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>-2.2570581140011498E-3</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>2.6601930643755899E-3</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>1.9269700985619101E-5</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <f>AVERAGEA(B5:S5)</f>
         <v>1.5039263150152227E-3</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <f>MAX(B5:S5)</f>
         <v>3.6828934529332699E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2.5278962029511298E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>-9.5681397908120602E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1.83977257266893E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>2.0861559692031402E-3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1.4553058976590799E-3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>-2.5895001510087799E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>-1.72936966115844E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>-1.62134328201446E-4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-2.1793000408673602E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>6.9826446197041004E-4</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>5.51486164780568E-4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>7.6086698599758795E-4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>2.1945790036886899E-3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>2.81685064493775E-5</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>2.54912074378888E-5</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>-2.3585385639475799E-3</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>-1.9955366524623298E-3</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>-1.9679359630686601E-4</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <f t="shared" ref="T3:T4" si="0">AVERAGEA(B6:S6)</f>
         <v>1.3519985525467116E-3</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <f t="shared" ref="U3:U4" si="1">MAX(B6:S6)</f>
         <v>2.5895001510087799E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2.8695234444064402E-4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>7.0376308195707302E-6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>-8.0065931009220496E-5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>4.3564482970890502E-3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>1.38035064601982E-5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>-1.10072996958163E-4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>-1.4871792600520399E-3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>5.9891769063702797E-5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>-2.46611130212755E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>-2.9616635026420701E-4</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>1.54696805391763E-3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>-1.9212202249188799E-3</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>2.5224936718556698E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>-2.2146728436805E-3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>-1.00182543820026E-3</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>5.0383259387238504E-4</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>4.5401808938153699E-4</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>-1.7413160975472699E-4</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <f t="shared" si="0"/>
         <v>1.0834939952147741E-3</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <f t="shared" si="1"/>
         <v>4.3564482970890502E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f>ABS(B2)</f>
         <v>2.30596549612133E-4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:S5" si="2">ABS(C2)</f>
         <v>2.7451269663130301E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>3.3782676290965998E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="2"/>
         <v>3.6828934529332699E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="2"/>
         <v>3.3151261967490103E-4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>7.2288434124800904E-4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>1.5201343222607799E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>1.46709517931989E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>1.57211252935542E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>1.03935206234368E-3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>1.9553640269616098E-3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>3.9691990016313399E-5</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <f t="shared" si="2"/>
         <v>1.69533773664733E-3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <f t="shared" si="2"/>
         <v>1.22483643568638E-3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <f t="shared" si="2"/>
         <v>5.2894694944230502E-4</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <f t="shared" si="2"/>
         <v>2.2570581140011498E-3</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <f t="shared" si="2"/>
         <v>2.6601930643755899E-3</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <f t="shared" si="2"/>
         <v>1.9269700985619101E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f t="shared" ref="B6:S6" si="3">ABS(B3)</f>
         <v>2.5278962029511298E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" si="3"/>
         <v>9.5681397908120602E-4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="3"/>
         <v>1.83977257266893E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>2.0861559692031402E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="3"/>
         <v>1.4553058976590799E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f t="shared" si="3"/>
         <v>2.5895001510087799E-3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f t="shared" si="3"/>
         <v>1.72936966115844E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="3"/>
         <v>1.62134328201446E-4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>2.1793000408673602E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>6.9826446197041004E-4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
         <v>5.51486164780568E-4</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>7.6086698599758795E-4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>2.1945790036886899E-3</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <f t="shared" si="3"/>
         <v>2.81685064493775E-5</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <f t="shared" si="3"/>
         <v>2.54912074378888E-5</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f t="shared" si="3"/>
         <v>2.3585385639475799E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f t="shared" si="3"/>
         <v>1.9955366524623298E-3</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <f t="shared" si="3"/>
         <v>1.9679359630686601E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:S7" si="4">ABS(B4)</f>
         <v>2.8695234444064402E-4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f t="shared" si="4"/>
         <v>7.0376308195707302E-6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="4"/>
         <v>8.0065931009220496E-5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="4"/>
         <v>4.3564482970890502E-3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="4"/>
         <v>1.38035064601982E-5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f t="shared" si="4"/>
         <v>1.10072996958163E-4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
         <v>1.4871792600520399E-3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="4"/>
         <v>5.9891769063702797E-5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f t="shared" si="4"/>
         <v>2.46611130212755E-3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>2.9616635026420701E-4</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <f t="shared" si="4"/>
         <v>1.54696805391763E-3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <f t="shared" si="4"/>
         <v>1.9212202249188799E-3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <f t="shared" si="4"/>
         <v>2.5224936718556698E-3</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <f t="shared" si="4"/>
         <v>2.2146728436805E-3</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <f t="shared" si="4"/>
         <v>1.00182543820026E-3</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <f t="shared" si="4"/>
         <v>5.0383259387238504E-4</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <f t="shared" si="4"/>
         <v>4.5401808938153699E-4</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="3">
         <f t="shared" si="4"/>
         <v>1.7413160975472699E-4</v>
       </c>
@@ -1424,5 +1437,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>